--- a/xlsx/信息技术_intext.xlsx
+++ b/xlsx/信息技术_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="940">
   <si>
     <t>信息技术</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>縮寫</t>
+    <t>缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%95%86%E6%A5%AD%E8%A9%95%E8%AB%96</t>
   </si>
   <si>
-    <t>哈佛商業評論</t>
+    <t>哈佛商业评论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%98%9F%E4%BD%9C%E6%A5%AD%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>紅星作業系統</t>
+    <t>红星作业系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>通訊技術</t>
+    <t>通讯技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%B2%E5%AD%98%E8%A3%9D%E7%BD%AE</t>
   </si>
   <si>
-    <t>儲存裝置</t>
+    <t>储存装置</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Colossus_computer</t>
@@ -191,13 +191,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E9%81%94</t>
   </si>
   <si>
-    <t>雷達</t>
+    <t>雷达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B0%E6%A5%B5%E5%B0%84%E7%B7%9A%E7%AE%A1</t>
   </si>
   <si>
-    <t>陰極射線管</t>
+    <t>阴极射线管</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%E5%A7%86%E6%96%AF%E7%AE%A1</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%96%99%E5%BA%AB</t>
   </si>
   <si>
-    <t>資料庫</t>
+    <t>资料库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%B0%E9%B9%83_(%E8%B6%85%E7%BA%A7%E8%AE%A1%E7%AE%97%E6%9C%BA)</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E8%81%AF%E5%BC%8F%E8%B3%87%E6%96%99%E5%BA%AB%E7%AE%A1%E7%90%86%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>關聯式資料庫管理系統</t>
+    <t>关联式资料库管理系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E9%AA%A8%E6%96%87%E5%85%AC%E5%8F%B8</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AA%94%E6%A1%88%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>檔案系統</t>
+    <t>档案系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E7%B3%BB%E6%95%B0%E6%8D%AE%E5%BA%93</t>
@@ -353,31 +353,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%96%99%E5%80%89%E5%84%B2</t>
   </si>
   <si>
-    <t>資料倉儲</t>
+    <t>资料仓储</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E7%AD%96%E6%94%AF%E6%8F%B4%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>決策支援系統</t>
+    <t>决策支援系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%92%AD</t>
   </si>
   <si>
-    <t>廣播</t>
+    <t>广播</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>電信</t>
+    <t>电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>通訊協定</t>
+    <t>通讯协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SOAP</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%96%99%E6%8E%A2%E5%8B%98</t>
   </si>
   <si>
-    <t>資料探勘</t>
+    <t>资料探勘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E5%8D%8F%E4%BC%9A</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>資訊系統</t>
+    <t>资讯系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E9%83%A8%E8%AE%BE%E5%A4%87</t>
@@ -437,15 +437,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80%E6%9C%8D%E5%8B%99%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>資訊科技服務管理</t>
+    <t>资讯科技服务管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E4%BF%A1</t>
   </si>
   <si>
-    <t>电信</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/information_ethics</t>
   </si>
   <si>
@@ -455,13 +452,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E4%BC%AF%E7%89%B9%C2%B7%E7%B6%AD%E7%B4%8D</t>
   </si>
   <si>
-    <t>諾伯特·維納</t>
+    <t>诺伯特·维纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%91%8A%E9%9B%BB%E5%AD%90%E9%83%B5%E4%BB%B6</t>
   </si>
   <si>
-    <t>廣告電子郵件</t>
+    <t>广告电子邮件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%AE%A2_(%E8%AE%A1%E7%AE%97%E6%9C%BA%E5%AE%89%E5%85%A8)</t>
@@ -485,13 +482,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E5%8F%8A%E9%80%9A%E8%A8%8A%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>資訊及通訊科技</t>
+    <t>资讯及通讯科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>資訊管理</t>
+    <t>资讯管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Data_processing</t>
@@ -521,7 +518,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A%E5%B7%A5%E7%A8%8B</t>
@@ -533,7 +530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E7%94%A2%E9%A4%8A%E6%AE%96</t>
   </si>
   <si>
-    <t>水產養殖</t>
+    <t>水产养殖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E4%BA%A7%E5%AD%A6</t>
@@ -545,7 +542,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>食品化學</t>
+    <t>食品化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%B7%A5%E7%A8%8B</t>
@@ -611,13 +608,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>健康科學</t>
+    <t>健康科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%8C%96%E6%AA%A2%E9%A9%97</t>
   </si>
   <si>
-    <t>生化檢驗</t>
+    <t>生化检验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%AF%E7%90%86%E5%AD%A6</t>
@@ -671,7 +668,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>建築</t>
+    <t>建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%88%A9%E5%B7%A5%E7%A8%8B</t>
@@ -713,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>結構工程</t>
+    <t>结构工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E6%8A%80%E6%9C%AF</t>
@@ -785,31 +782,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%88%E8%97%A5</t>
   </si>
   <si>
-    <t>彈藥</t>
+    <t>弹药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%B8%E5%BD%88</t>
   </si>
   <si>
-    <t>炸彈</t>
+    <t>炸弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>軍事技術</t>
+    <t>军事技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>電子作戰</t>
+    <t>电子作战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%8F%AF%E5%81%B5%E6%B8%AC%E6%80%A7%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>低可偵測性技術</t>
+    <t>低可侦测性技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%85%B5</t>
@@ -833,7 +830,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E6%A9%9F%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>計算機工程</t>
+    <t>计算机工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E4%B9%90%E5%B7%A5%E8%89%BA</t>
@@ -857,7 +854,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>軟件工程</t>
+    <t>软件工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E4%B9%90%E6%8A%80%E6%9C%AF</t>
@@ -953,7 +950,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%A9%9F%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>電機工程學</t>
+    <t>电机工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E5%B7%A5%E7%A8%8B</t>
@@ -965,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>工程技術</t>
+    <t>工程技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%AD%A6</t>
@@ -1031,7 +1028,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>運輸工程</t>
+    <t>运输工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%8A%A8%E6%9C%BA%E6%A2%B0%E5%AD%A6</t>
@@ -1049,7 +1046,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BD%E9%80%A0</t>
   </si>
   <si>
-    <t>製造</t>
+    <t>制造</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E6%A2%B0</t>
@@ -1127,13 +1124,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>環境科技</t>
+    <t>环境科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>綠色建築</t>
+    <t>绿色建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%86%8D%E7%94%9F%E8%83%BD%E6%BA%90</t>
@@ -1145,7 +1142,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>永續設計</t>
+    <t>永续设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E5%B7%A5%E7%A8%8B</t>
@@ -1157,7 +1154,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>生態工程</t>
+    <t>生态工程</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Clean_technology</t>
@@ -1181,7 +1178,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>應用科學</t>
+    <t>应用科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4</t>
@@ -1223,7 +1220,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>微系統</t>
+    <t>微系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E6%8A%80%E6%9C%AF</t>
@@ -1259,13 +1256,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%A4%8E%E8%A8%AD%E6%96%BD</t>
   </si>
   <si>
-    <t>基礎設施</t>
+    <t>基础设施</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E6%98%8E</t>
   </si>
   <si>
-    <t>發明</t>
+    <t>发明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E6%98%8E%E5%B9%B4%E8%A1%A8</t>
@@ -1277,13 +1274,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98</t>
   </si>
   <si>
-    <t>知識</t>
+    <t>知识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8</t>
   </si>
   <si>
-    <t>機器</t>
+    <t>机器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%83%BD</t>
@@ -1319,7 +1316,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>工業革命</t>
+    <t>工业革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E5%B7%A5%E4%B8%9A%E9%9D%A9%E5%91%BD</t>
@@ -1331,13 +1328,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%97%E5%8C%96%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>數字化革命</t>
+    <t>数字化革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%AC%A1%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>第三次工業革命</t>
+    <t>第三次工业革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E6%97%B6%E4%BB%A3</t>
@@ -1391,7 +1388,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E5%A3%9E%E6%80%A7%E5%89%B5%E6%96%B0</t>
   </si>
   <si>
-    <t>破壞性創新</t>
+    <t>破坏性创新</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%A7%91%E6%8A%80</t>
@@ -1421,7 +1418,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%A1%93%E5%AE%98%E5%83%9A</t>
   </si>
   <si>
-    <t>技術官僚</t>
+    <t>技术官僚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E6%9C%AF%E5%A5%87%E5%BC%82%E7%82%B9</t>
@@ -1463,7 +1460,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E6%8A%80%E8%A1%93%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>新興技術列表</t>
+    <t>新兴技术列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%E8%BE%BE%E8%82%96%E5%A4%AB%E6%8C%87%E6%95%B0</t>
@@ -1505,25 +1502,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E4%BA%8C%E5%8D%81%E5%A4%A7%E5%8D%8A%E5%B0%8E%E9%AB%94%E5%BB%A0%E5%95%86</t>
   </si>
   <si>
-    <t>全球二十大半導體廠商</t>
+    <t>全球二十大半导体厂商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E9%9B%BB%E5%AD%90%E7%94%A2%E5%93%81</t>
   </si>
   <si>
-    <t>消費電子產品</t>
+    <t>消费电子产品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E8%A3%9D%E7%BD%AE</t>
   </si>
   <si>
-    <t>行動裝置</t>
+    <t>行动装置</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>蘋果公司</t>
+    <t>苹果公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%98%9F%E7%94%B5%E5%AD%90</t>
@@ -1535,13 +1532,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%82%BA</t>
   </si>
   <si>
-    <t>華為</t>
+    <t>华为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%B0%BC%E7%A7%BB%E5%8B%95%E9%80%9A%E4%BF%A1</t>
   </si>
   <si>
-    <t>索尼移動通信</t>
+    <t>索尼移动通信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%BE%BE%E7%94%B5</t>
@@ -1553,7 +1550,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%A2%A9</t>
   </si>
   <si>
-    <t>華碩</t>
+    <t>华硕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%89%98%E7%BD%97%E6%8B%89%E7%A7%BB%E5%8A%A8</t>
@@ -1571,7 +1568,7 @@
     <t>https://zh.wikipedia.org/wiki/LG%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>LG電子</t>
+    <t>LG电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/TCL</t>
@@ -1625,7 +1622,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%8F%AF%E8%A6%96</t>
   </si>
   <si>
-    <t>富可視</t>
+    <t>富可视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AA%E4%BA%BA%E7%94%B5%E8%84%91</t>
@@ -1691,25 +1688,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B4%BB%E6%B5%B7%E7%A7%91%E6%8A%80%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>鴻海科技集團</t>
+    <t>鸿海科技集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E6%99%BA%E5%BA%B7%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>富智康集團</t>
+    <t>富智康集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E9%81%94%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>廣達電腦</t>
+    <t>广达电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%81%E5%AF%B6%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>仁寶電腦</t>
+    <t>仁宝电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%AC%E5%88%9B%E8%B5%84%E9%80%9A</t>
@@ -1721,19 +1718,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A5%AD%E9%81%94%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>英業達集團</t>
+    <t>英业达集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E7%A2%A9%E8%81%AF%E5%90%88%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>和碩聯合科技</t>
+    <t>和硕联合科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%89%E5%89%B5%E5%8A%9B</t>
   </si>
   <si>
-    <t>偉創力</t>
+    <t>伟创力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Celestica</t>
@@ -1775,7 +1772,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%9B%BB%E6%B0%A3</t>
   </si>
   <si>
-    <t>日本電氣</t>
+    <t>日本电气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%B1%E5%83%8F</t>
@@ -1793,9 +1790,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%98%9F%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>三星電子</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%BA%B7</t>
   </si>
   <si>
@@ -1817,7 +1811,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%B7%B4%E6%96%AF</t>
   </si>
   <si>
-    <t>奧林巴斯</t>
+    <t>奥林巴斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E5%B0%BC%E5%8D%A1%E7%BE%8E%E8%83%BD%E8%BE%BE</t>
@@ -1853,7 +1847,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E5%B7%A5%E6%84%9B%E6%99%AE%E7%94%9F</t>
   </si>
   <si>
-    <t>精工愛普生</t>
+    <t>精工爱普生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%BD%E4%B9%90</t>
@@ -1865,7 +1859,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%AB%8B%E5%85%89%E9%9B%BB</t>
   </si>
   <si>
-    <t>大立光電</t>
+    <t>大立光电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E5%82%A8%E8%AE%BE%E5%A4%87</t>
@@ -1889,13 +1883,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E9%A8%B0%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>威騰電子</t>
+    <t>威腾电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%AB%8B%E8%A3%BD%E4%BD%9C%E6%89%80</t>
   </si>
   <si>
-    <t>日立製作所</t>
+    <t>日立制作所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%93%E5%AE%89%E4%BF%A1</t>
@@ -1907,13 +1901,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E5%99%A8%E6%A2%B0%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>網絡器械公司</t>
+    <t>网络器械公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%AE%E8%A9%A2</t>
   </si>
   <si>
-    <t>諮詢</t>
+    <t>谘询</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E6%A3%AE%E5%93%B2</t>
@@ -1925,7 +1919,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%90%E8%A8%8A</t>
   </si>
   <si>
-    <t>源訊</t>
+    <t>源讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E6%80%9D%E8%89%BE%E4%BC%A6%E6%B1%89%E5%AF%86%E5%B0%94%E9%A1%BF%E6%8E%A7%E8%82%A1%E5%85%AC%E5%8F%B8</t>
@@ -1937,7 +1931,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%8D%B7</t>
   </si>
   <si>
-    <t>凱捷</t>
+    <t>凯捷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CGI_Group</t>
@@ -1973,7 +1967,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%BE%B7%E6%8B%89%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>英德拉系統</t>
+    <t>英德拉系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%AD%9A%E7%91%9F%E6%96%AF</t>
@@ -1985,7 +1979,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%9B%BB%E4%BF%A1%E9%9B%BB%E8%A9%B1</t>
   </si>
   <si>
-    <t>日本電信電話</t>
+    <t>日本电信电话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wipro</t>
@@ -2009,13 +2003,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E7%A7%91%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>思科系統</t>
+    <t>思科系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%B7%E5%94%AE%E6%99%82%E9%BB%9E%E6%83%85%E5%A0%B1%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>銷售時點情報系統</t>
+    <t>销售时点情报系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NCR%E5%85%AC%E5%8F%B8</t>
@@ -2027,9 +2021,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E8%8A%9D</t>
   </si>
   <si>
-    <t>東芝</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Network_equipment_provider</t>
   </si>
   <si>
@@ -2039,7 +2030,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8D%A1%E7%89%B9-%E6%9C%97%E8%A8%8A</t>
   </si>
   <si>
-    <t>阿爾卡特-朗訊</t>
+    <t>阿尔卡特-朗讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E4%BA%9A</t>
@@ -2051,19 +2042,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%AB%8B%E4%BF%A1</t>
   </si>
   <si>
-    <t>愛立信</t>
+    <t>爱立信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E4%B8%BA</t>
   </si>
   <si>
-    <t>华为</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9E%BB%E5%8D%9A%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>瞻博網路</t>
+    <t>瞻博网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%89%98%E7%BD%97%E6%8B%89%E8%A7%A3%E5%86%B3%E6%96%B9%E6%A1%88</t>
@@ -2117,7 +2105,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B7%9E%E5%84%80%E5%99%A8</t>
   </si>
   <si>
-    <t>德州儀器</t>
+    <t>德州仪器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E9%80%9A</t>
@@ -2129,55 +2117,55 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E6%B3%95%E5%8D%8A%E5%B0%8E%E9%AB%94</t>
   </si>
   <si>
-    <t>意法半導體</t>
+    <t>意法半导体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E8%96%A9%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>瑞薩電子</t>
+    <t>瑞萨电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%A8%81%E5%8D%8A%E5%B0%8E%E9%AB%94</t>
   </si>
   <si>
-    <t>超威半導體</t>
+    <t>超威半导体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%81%89%E9%81%94</t>
   </si>
   <si>
-    <t>英偉達</t>
+    <t>英伟达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%80%9D%E5%8D%8A%E5%B0%8E%E9%AB%94</t>
   </si>
   <si>
-    <t>海思半導體</t>
+    <t>海思半导体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%99%BC%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>聯發科技</t>
+    <t>联发科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E6%80%9D%E5%8D%A1%E7%88%BE</t>
   </si>
   <si>
-    <t>飛思卡爾</t>
+    <t>飞思卡尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LG%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>LG集團</t>
+    <t>LG集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E9%A3%9B%E5%87%8C</t>
   </si>
   <si>
-    <t>英飛凌</t>
+    <t>英飞凌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%BB%A1%E7%94%B5%E5%AD%90%E7%A7%91%E6%8A%80%E5%85%AC%E5%8F%B8</t>
@@ -2195,7 +2183,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E4%B8%8B%E9%9B%BB%E5%99%A8</t>
   </si>
   <si>
-    <t>松下電器</t>
+    <t>松下电器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A3%AE%E7%BE%8E%E5%8D%8A%E5%AF%BC%E4%BD%93</t>
@@ -2207,7 +2195,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%AB%E6%8D%B7%E5%8D%8A%E5%B0%8E%E9%AB%94%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>快捷半導體公司</t>
+    <t>快捷半导体公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LSI%E5%85%AC%E5%8F%B8</t>
@@ -2219,43 +2207,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%AB%E5%85%89%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>紫光集團</t>
+    <t>紫光集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%AC%80%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>安謀控股</t>
+    <t>安谋控股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%B6%E5%9C%93%E4%BB%A3%E5%B7%A5</t>
   </si>
   <si>
-    <t>晶圓代工</t>
+    <t>晶圆代工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%A9%8D%E9%9B%BB</t>
   </si>
   <si>
-    <t>台積電</t>
+    <t>台积电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E8%8F%AF%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>聯華電子</t>
+    <t>联华电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%BE%85%E6%96%B9%E5%BE%B7</t>
   </si>
   <si>
-    <t>格羅方德</t>
+    <t>格罗方德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8A%AF%E5%9C%8B%E9%9A%9B</t>
   </si>
   <si>
-    <t>中芯國際</t>
+    <t>中芯国际</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9B%E6%99%B6%E7%A7%91%E6%8A%80</t>
@@ -2279,7 +2267,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%A6%AC%E9%81%9C%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>亞馬遜公司</t>
+    <t>亚马逊公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/EBay</t>
@@ -2291,13 +2279,13 @@
     <t>https://zh.wikipedia.org/wiki/Priceline%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>Priceline集團</t>
+    <t>Priceline集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E6%9D%B1%E5%95%86%E5%9F%8E</t>
   </si>
   <si>
-    <t>京東商城</t>
+    <t>京东商城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Groupon</t>
@@ -2315,13 +2303,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%82%E5%A4%A9_(Rakuten)</t>
   </si>
   <si>
-    <t>樂天 (Rakuten)</t>
+    <t>乐天 (Rakuten)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%93%E9%80%94%E9%B7%B9</t>
   </si>
   <si>
-    <t>貓途鷹</t>
+    <t>猫途鹰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Expedia%E5%85%AC%E5%8F%B8</t>
@@ -2399,7 +2387,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E7%BE%A4%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>社群網路</t>
+    <t>社群网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Facebook</t>
@@ -2411,7 +2399,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A8%B0%E8%A8%8A</t>
   </si>
   <si>
-    <t>騰訊</t>
+    <t>腾讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Twitter</t>
@@ -2423,7 +2411,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E8%8B%B1</t>
   </si>
   <si>
-    <t>領英</t>
+    <t>领英</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B5%AA%E5%BE%AE%E5%8D%9A</t>
@@ -2441,7 +2429,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E5%8F%A3%E7%B6%B2%E7%AB%99</t>
   </si>
   <si>
-    <t>入口網站</t>
+    <t>入口网站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E6%98%93</t>
@@ -2477,7 +2465,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>軟體</t>
+    <t>软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SAP%E5%85%AC%E5%8F%B8</t>
@@ -2489,7 +2477,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E9%96%80%E9%90%B5%E5%85%8B</t>
   </si>
   <si>
-    <t>賽門鐵克</t>
+    <t>赛门铁克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/VMware</t>
@@ -2519,13 +2507,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%A8%E5%8B%A2%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>趨勢科技</t>
+    <t>趋势科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%8A%E9%80%A3%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>訊連科技</t>
+    <t>讯连科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B0%94</t>
@@ -2543,7 +2531,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A8%8A%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>電訊公司</t>
+    <t>电讯公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AT%26T</t>
@@ -2555,7 +2543,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E8%A8%8A</t>
   </si>
   <si>
-    <t>威訊</t>
+    <t>威讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%A7%BB%E5%8A%A8</t>
@@ -2573,7 +2561,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%8A%80</t>
   </si>
   <si>
-    <t>軟銀</t>
+    <t>软银</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E8%BE%BE%E4%B8%B0</t>
@@ -2591,13 +2579,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>中國電信</t>
+    <t>中国电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>西班牙電信</t>
+    <t>西班牙电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Orange_(%E5%85%AC%E5%8F%B8)</t>
@@ -2621,19 +2609,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>英國電信</t>
+    <t>英国电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>義大利電信</t>
+    <t>义大利电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>澳大利亞電信</t>
+    <t>澳大利亚电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD%E7%94%B5%E4%BF%A1</t>
@@ -2669,19 +2657,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E6%97%BA%E8%BF%AA</t>
   </si>
   <si>
-    <t>維旺迪</t>
+    <t>维旺迪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>中華電信</t>
+    <t>中华电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E7%9A%87%E5%AE%B6%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>荷蘭皇家電信</t>
+    <t>荷兰皇家电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NTT_DOCOMO</t>
@@ -2711,13 +2699,13 @@
     <t>https://zh.wikipedia.org/wiki/3_(%E9%9B%BB%E8%A8%8A)</t>
   </si>
   <si>
-    <t>3 (電訊)</t>
+    <t>3 (电讯)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>新加坡電信</t>
+    <t>新加坡电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Etisalat</t>
@@ -2741,7 +2729,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A8%8A%E7%9B%88%E7%A7%91</t>
   </si>
   <si>
-    <t>電訊盈科</t>
+    <t>电讯盈科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E8%A7%86%E6%9A%B4%E9%9B%AA</t>
@@ -2753,7 +2741,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E9%81%94%E5%88%A9</t>
   </si>
   <si>
-    <t>雅達利</t>
+    <t>雅达利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%87%E4%BB%A3%E5%8D%97%E6%A2%A6%E5%AE%AB%E5%A8%B1%E4%B9%90</t>
@@ -2795,7 +2783,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%A8%82%E7%BE%8E</t>
   </si>
   <si>
-    <t>科樂美</t>
+    <t>科乐美</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NCsoft</t>
@@ -2837,9 +2825,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%85%BE%E8%AE%AF</t>
   </si>
   <si>
-    <t>腾讯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%B2%E7%A2%A7</t>
   </si>
   <si>
@@ -2849,7 +2834,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%B4%8D%E5%85%84%E5%BC%9F%E4%BA%92%E5%8B%95%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>華納兄弟互動娛樂</t>
+    <t>华纳兄弟互动娱乐</t>
   </si>
 </sst>
 </file>
@@ -5250,7 +5235,7 @@
         <v>141</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="G71" t="n">
         <v>4</v>
@@ -5276,10 +5261,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -5305,10 +5290,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -5334,10 +5319,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -5363,10 +5348,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -5392,10 +5377,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>3</v>
@@ -5421,10 +5406,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -5450,10 +5435,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5479,10 +5464,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -5508,10 +5493,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5537,10 +5522,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>3</v>
@@ -5566,10 +5551,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5595,10 +5580,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>6</v>
@@ -5624,10 +5609,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5653,10 +5638,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5682,10 +5667,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5711,10 +5696,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5740,10 +5725,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5769,10 +5754,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5798,10 +5783,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5827,10 +5812,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5856,10 +5841,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5885,10 +5870,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5914,10 +5899,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5943,10 +5928,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5972,10 +5957,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -6001,10 +5986,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -6030,10 +6015,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -6059,10 +6044,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -6088,10 +6073,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -6117,10 +6102,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
         <v>201</v>
-      </c>
-      <c r="F101" t="s">
-        <v>202</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -6146,10 +6131,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" t="s">
         <v>203</v>
-      </c>
-      <c r="F102" t="s">
-        <v>204</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -6175,10 +6160,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" t="s">
         <v>205</v>
-      </c>
-      <c r="F103" t="s">
-        <v>206</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6204,10 +6189,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104" t="s">
         <v>207</v>
-      </c>
-      <c r="F104" t="s">
-        <v>208</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -6233,10 +6218,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" t="s">
         <v>209</v>
-      </c>
-      <c r="F105" t="s">
-        <v>210</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6262,10 +6247,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
         <v>211</v>
-      </c>
-      <c r="F106" t="s">
-        <v>212</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6291,10 +6276,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>212</v>
+      </c>
+      <c r="F107" t="s">
         <v>213</v>
-      </c>
-      <c r="F107" t="s">
-        <v>214</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -6320,10 +6305,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
         <v>215</v>
-      </c>
-      <c r="F108" t="s">
-        <v>216</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -6349,10 +6334,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" t="s">
         <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
       </c>
       <c r="G109" t="n">
         <v>4</v>
@@ -6378,10 +6363,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>220</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6407,10 +6392,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>220</v>
+      </c>
+      <c r="F111" t="s">
         <v>221</v>
-      </c>
-      <c r="F111" t="s">
-        <v>222</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6436,10 +6421,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>222</v>
+      </c>
+      <c r="F112" t="s">
         <v>223</v>
-      </c>
-      <c r="F112" t="s">
-        <v>224</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6465,10 +6450,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>224</v>
+      </c>
+      <c r="F113" t="s">
         <v>225</v>
-      </c>
-      <c r="F113" t="s">
-        <v>226</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6494,10 +6479,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" t="s">
         <v>227</v>
-      </c>
-      <c r="F114" t="s">
-        <v>228</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6523,10 +6508,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>228</v>
+      </c>
+      <c r="F115" t="s">
         <v>229</v>
-      </c>
-      <c r="F115" t="s">
-        <v>230</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6552,10 +6537,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>230</v>
+      </c>
+      <c r="F116" t="s">
         <v>231</v>
-      </c>
-      <c r="F116" t="s">
-        <v>232</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6581,10 +6566,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" t="s">
         <v>233</v>
-      </c>
-      <c r="F117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -6610,10 +6595,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>234</v>
+      </c>
+      <c r="F118" t="s">
         <v>235</v>
-      </c>
-      <c r="F118" t="s">
-        <v>236</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6639,10 +6624,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" t="s">
         <v>237</v>
-      </c>
-      <c r="F119" t="s">
-        <v>238</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6668,10 +6653,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" t="s">
         <v>239</v>
-      </c>
-      <c r="F120" t="s">
-        <v>240</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6697,10 +6682,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>240</v>
+      </c>
+      <c r="F121" t="s">
         <v>241</v>
-      </c>
-      <c r="F121" t="s">
-        <v>242</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6726,10 +6711,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" t="s">
         <v>243</v>
-      </c>
-      <c r="F122" t="s">
-        <v>244</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -6755,10 +6740,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>244</v>
+      </c>
+      <c r="F123" t="s">
         <v>245</v>
-      </c>
-      <c r="F123" t="s">
-        <v>246</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6784,10 +6769,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
         <v>247</v>
-      </c>
-      <c r="F124" t="s">
-        <v>248</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6813,10 +6798,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" t="s">
         <v>249</v>
-      </c>
-      <c r="F125" t="s">
-        <v>250</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6842,10 +6827,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>250</v>
+      </c>
+      <c r="F126" t="s">
         <v>251</v>
-      </c>
-      <c r="F126" t="s">
-        <v>252</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6871,10 +6856,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" t="s">
         <v>253</v>
-      </c>
-      <c r="F127" t="s">
-        <v>254</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -6900,10 +6885,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" t="s">
         <v>255</v>
-      </c>
-      <c r="F128" t="s">
-        <v>256</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6929,10 +6914,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" t="s">
         <v>257</v>
-      </c>
-      <c r="F129" t="s">
-        <v>258</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6958,10 +6943,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" t="s">
         <v>259</v>
-      </c>
-      <c r="F130" t="s">
-        <v>260</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6987,10 +6972,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>260</v>
+      </c>
+      <c r="F131" t="s">
         <v>261</v>
-      </c>
-      <c r="F131" t="s">
-        <v>262</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -7016,10 +7001,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>262</v>
+      </c>
+      <c r="F132" t="s">
         <v>263</v>
-      </c>
-      <c r="F132" t="s">
-        <v>264</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -7045,10 +7030,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>264</v>
+      </c>
+      <c r="F133" t="s">
         <v>265</v>
-      </c>
-      <c r="F133" t="s">
-        <v>266</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7074,10 +7059,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>266</v>
+      </c>
+      <c r="F134" t="s">
         <v>267</v>
-      </c>
-      <c r="F134" t="s">
-        <v>268</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7103,10 +7088,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" t="s">
         <v>269</v>
-      </c>
-      <c r="F135" t="s">
-        <v>270</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7132,10 +7117,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>270</v>
+      </c>
+      <c r="F136" t="s">
         <v>271</v>
-      </c>
-      <c r="F136" t="s">
-        <v>272</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7161,10 +7146,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>272</v>
+      </c>
+      <c r="F137" t="s">
         <v>273</v>
-      </c>
-      <c r="F137" t="s">
-        <v>274</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7190,10 +7175,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>274</v>
+      </c>
+      <c r="F138" t="s">
         <v>275</v>
-      </c>
-      <c r="F138" t="s">
-        <v>276</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7248,10 +7233,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>276</v>
+      </c>
+      <c r="F140" t="s">
         <v>277</v>
-      </c>
-      <c r="F140" t="s">
-        <v>278</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -7277,10 +7262,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>278</v>
+      </c>
+      <c r="F141" t="s">
         <v>279</v>
-      </c>
-      <c r="F141" t="s">
-        <v>280</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7306,10 +7291,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>280</v>
+      </c>
+      <c r="F142" t="s">
         <v>281</v>
-      </c>
-      <c r="F142" t="s">
-        <v>282</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -7335,10 +7320,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>282</v>
+      </c>
+      <c r="F143" t="s">
         <v>283</v>
-      </c>
-      <c r="F143" t="s">
-        <v>284</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7364,10 +7349,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>284</v>
+      </c>
+      <c r="F144" t="s">
         <v>285</v>
-      </c>
-      <c r="F144" t="s">
-        <v>286</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7393,10 +7378,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>286</v>
+      </c>
+      <c r="F145" t="s">
         <v>287</v>
-      </c>
-      <c r="F145" t="s">
-        <v>288</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7422,10 +7407,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>288</v>
+      </c>
+      <c r="F146" t="s">
         <v>289</v>
-      </c>
-      <c r="F146" t="s">
-        <v>290</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7451,10 +7436,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>290</v>
+      </c>
+      <c r="F147" t="s">
         <v>291</v>
-      </c>
-      <c r="F147" t="s">
-        <v>292</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
@@ -7480,10 +7465,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>292</v>
+      </c>
+      <c r="F148" t="s">
         <v>293</v>
-      </c>
-      <c r="F148" t="s">
-        <v>294</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7509,10 +7494,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" t="s">
         <v>295</v>
-      </c>
-      <c r="F149" t="s">
-        <v>296</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7538,10 +7523,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>296</v>
+      </c>
+      <c r="F150" t="s">
         <v>297</v>
-      </c>
-      <c r="F150" t="s">
-        <v>298</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7567,10 +7552,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>298</v>
+      </c>
+      <c r="F151" t="s">
         <v>299</v>
-      </c>
-      <c r="F151" t="s">
-        <v>300</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -7596,10 +7581,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>300</v>
+      </c>
+      <c r="F152" t="s">
         <v>301</v>
-      </c>
-      <c r="F152" t="s">
-        <v>302</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7625,10 +7610,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>302</v>
+      </c>
+      <c r="F153" t="s">
         <v>303</v>
-      </c>
-      <c r="F153" t="s">
-        <v>304</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7654,10 +7639,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>304</v>
+      </c>
+      <c r="F154" t="s">
         <v>305</v>
-      </c>
-      <c r="F154" t="s">
-        <v>306</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7683,10 +7668,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>306</v>
+      </c>
+      <c r="F155" t="s">
         <v>307</v>
-      </c>
-      <c r="F155" t="s">
-        <v>308</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7712,10 +7697,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>308</v>
+      </c>
+      <c r="F156" t="s">
         <v>309</v>
-      </c>
-      <c r="F156" t="s">
-        <v>310</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7741,10 +7726,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>310</v>
+      </c>
+      <c r="F157" t="s">
         <v>311</v>
-      </c>
-      <c r="F157" t="s">
-        <v>312</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7770,10 +7755,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>312</v>
+      </c>
+      <c r="F158" t="s">
         <v>313</v>
-      </c>
-      <c r="F158" t="s">
-        <v>314</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7799,10 +7784,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>314</v>
+      </c>
+      <c r="F159" t="s">
         <v>315</v>
-      </c>
-      <c r="F159" t="s">
-        <v>316</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7828,10 +7813,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>316</v>
+      </c>
+      <c r="F160" t="s">
         <v>317</v>
-      </c>
-      <c r="F160" t="s">
-        <v>318</v>
       </c>
       <c r="G160" t="n">
         <v>5</v>
@@ -7857,10 +7842,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>318</v>
+      </c>
+      <c r="F161" t="s">
         <v>319</v>
-      </c>
-      <c r="F161" t="s">
-        <v>320</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7886,10 +7871,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>320</v>
+      </c>
+      <c r="F162" t="s">
         <v>321</v>
-      </c>
-      <c r="F162" t="s">
-        <v>322</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7915,10 +7900,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>322</v>
+      </c>
+      <c r="F163" t="s">
         <v>323</v>
-      </c>
-      <c r="F163" t="s">
-        <v>324</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7944,10 +7929,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>324</v>
+      </c>
+      <c r="F164" t="s">
         <v>325</v>
-      </c>
-      <c r="F164" t="s">
-        <v>326</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7973,10 +7958,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>326</v>
+      </c>
+      <c r="F165" t="s">
         <v>327</v>
-      </c>
-      <c r="F165" t="s">
-        <v>328</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8002,10 +7987,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>328</v>
+      </c>
+      <c r="F166" t="s">
         <v>329</v>
-      </c>
-      <c r="F166" t="s">
-        <v>330</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8031,10 +8016,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>330</v>
+      </c>
+      <c r="F167" t="s">
         <v>331</v>
-      </c>
-      <c r="F167" t="s">
-        <v>332</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8060,10 +8045,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>332</v>
+      </c>
+      <c r="F168" t="s">
         <v>333</v>
-      </c>
-      <c r="F168" t="s">
-        <v>334</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8089,10 +8074,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>334</v>
+      </c>
+      <c r="F169" t="s">
         <v>335</v>
-      </c>
-      <c r="F169" t="s">
-        <v>336</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -8118,10 +8103,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>336</v>
+      </c>
+      <c r="F170" t="s">
         <v>337</v>
-      </c>
-      <c r="F170" t="s">
-        <v>338</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8147,10 +8132,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>338</v>
+      </c>
+      <c r="F171" t="s">
         <v>339</v>
-      </c>
-      <c r="F171" t="s">
-        <v>340</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8176,10 +8161,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>340</v>
+      </c>
+      <c r="F172" t="s">
         <v>341</v>
-      </c>
-      <c r="F172" t="s">
-        <v>342</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8205,10 +8190,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>342</v>
+      </c>
+      <c r="F173" t="s">
         <v>343</v>
-      </c>
-      <c r="F173" t="s">
-        <v>344</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8234,10 +8219,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>344</v>
+      </c>
+      <c r="F174" t="s">
         <v>345</v>
-      </c>
-      <c r="F174" t="s">
-        <v>346</v>
       </c>
       <c r="G174" t="n">
         <v>4</v>
@@ -8263,10 +8248,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>346</v>
+      </c>
+      <c r="F175" t="s">
         <v>347</v>
-      </c>
-      <c r="F175" t="s">
-        <v>348</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8292,10 +8277,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>348</v>
+      </c>
+      <c r="F176" t="s">
         <v>349</v>
-      </c>
-      <c r="F176" t="s">
-        <v>350</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8321,10 +8306,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>350</v>
+      </c>
+      <c r="F177" t="s">
         <v>351</v>
-      </c>
-      <c r="F177" t="s">
-        <v>352</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8350,10 +8335,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>352</v>
+      </c>
+      <c r="F178" t="s">
         <v>353</v>
-      </c>
-      <c r="F178" t="s">
-        <v>354</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -8379,10 +8364,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>354</v>
+      </c>
+      <c r="F179" t="s">
         <v>355</v>
-      </c>
-      <c r="F179" t="s">
-        <v>356</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -8408,10 +8393,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>356</v>
+      </c>
+      <c r="F180" t="s">
         <v>357</v>
-      </c>
-      <c r="F180" t="s">
-        <v>358</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8437,10 +8422,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>358</v>
+      </c>
+      <c r="F181" t="s">
         <v>359</v>
-      </c>
-      <c r="F181" t="s">
-        <v>360</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8466,10 +8451,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>360</v>
+      </c>
+      <c r="F182" t="s">
         <v>361</v>
-      </c>
-      <c r="F182" t="s">
-        <v>362</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8495,10 +8480,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>362</v>
+      </c>
+      <c r="F183" t="s">
         <v>363</v>
-      </c>
-      <c r="F183" t="s">
-        <v>364</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8524,10 +8509,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>364</v>
+      </c>
+      <c r="F184" t="s">
         <v>365</v>
-      </c>
-      <c r="F184" t="s">
-        <v>366</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8553,10 +8538,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>366</v>
+      </c>
+      <c r="F185" t="s">
         <v>367</v>
-      </c>
-      <c r="F185" t="s">
-        <v>368</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8582,10 +8567,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>368</v>
+      </c>
+      <c r="F186" t="s">
         <v>369</v>
-      </c>
-      <c r="F186" t="s">
-        <v>370</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8611,10 +8596,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>370</v>
+      </c>
+      <c r="F187" t="s">
         <v>371</v>
-      </c>
-      <c r="F187" t="s">
-        <v>372</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8640,10 +8625,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>372</v>
+      </c>
+      <c r="F188" t="s">
         <v>373</v>
-      </c>
-      <c r="F188" t="s">
-        <v>374</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8669,10 +8654,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>374</v>
+      </c>
+      <c r="F189" t="s">
         <v>375</v>
-      </c>
-      <c r="F189" t="s">
-        <v>376</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8698,10 +8683,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>376</v>
+      </c>
+      <c r="F190" t="s">
         <v>377</v>
-      </c>
-      <c r="F190" t="s">
-        <v>378</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8727,10 +8712,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>378</v>
+      </c>
+      <c r="F191" t="s">
         <v>379</v>
-      </c>
-      <c r="F191" t="s">
-        <v>380</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8756,10 +8741,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>380</v>
+      </c>
+      <c r="F192" t="s">
         <v>381</v>
-      </c>
-      <c r="F192" t="s">
-        <v>382</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8785,10 +8770,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>382</v>
+      </c>
+      <c r="F193" t="s">
         <v>383</v>
-      </c>
-      <c r="F193" t="s">
-        <v>384</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8814,10 +8799,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>384</v>
+      </c>
+      <c r="F194" t="s">
         <v>385</v>
-      </c>
-      <c r="F194" t="s">
-        <v>386</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8843,10 +8828,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>386</v>
+      </c>
+      <c r="F195" t="s">
         <v>387</v>
-      </c>
-      <c r="F195" t="s">
-        <v>388</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8872,10 +8857,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>388</v>
+      </c>
+      <c r="F196" t="s">
         <v>389</v>
-      </c>
-      <c r="F196" t="s">
-        <v>390</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8901,10 +8886,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>390</v>
+      </c>
+      <c r="F197" t="s">
         <v>391</v>
-      </c>
-      <c r="F197" t="s">
-        <v>392</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -8930,10 +8915,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>392</v>
+      </c>
+      <c r="F198" t="s">
         <v>393</v>
-      </c>
-      <c r="F198" t="s">
-        <v>394</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -8959,10 +8944,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>394</v>
+      </c>
+      <c r="F199" t="s">
         <v>395</v>
-      </c>
-      <c r="F199" t="s">
-        <v>396</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8988,10 +8973,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>396</v>
+      </c>
+      <c r="F200" t="s">
         <v>397</v>
-      </c>
-      <c r="F200" t="s">
-        <v>398</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9017,10 +9002,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>398</v>
+      </c>
+      <c r="F201" t="s">
         <v>399</v>
-      </c>
-      <c r="F201" t="s">
-        <v>400</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9046,10 +9031,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>400</v>
+      </c>
+      <c r="F202" t="s">
         <v>401</v>
-      </c>
-      <c r="F202" t="s">
-        <v>402</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9075,10 +9060,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>402</v>
+      </c>
+      <c r="F203" t="s">
         <v>403</v>
-      </c>
-      <c r="F203" t="s">
-        <v>404</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9104,10 +9089,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>404</v>
+      </c>
+      <c r="F204" t="s">
         <v>405</v>
-      </c>
-      <c r="F204" t="s">
-        <v>406</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9133,10 +9118,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>406</v>
+      </c>
+      <c r="F205" t="s">
         <v>407</v>
-      </c>
-      <c r="F205" t="s">
-        <v>408</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9162,10 +9147,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>326</v>
+      </c>
+      <c r="F206" t="s">
         <v>327</v>
-      </c>
-      <c r="F206" t="s">
-        <v>328</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9191,10 +9176,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>408</v>
+      </c>
+      <c r="F207" t="s">
         <v>409</v>
-      </c>
-      <c r="F207" t="s">
-        <v>410</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9220,10 +9205,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>410</v>
+      </c>
+      <c r="F208" t="s">
         <v>411</v>
-      </c>
-      <c r="F208" t="s">
-        <v>412</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9249,10 +9234,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>412</v>
+      </c>
+      <c r="F209" t="s">
         <v>413</v>
-      </c>
-      <c r="F209" t="s">
-        <v>414</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9278,10 +9263,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>414</v>
+      </c>
+      <c r="F210" t="s">
         <v>415</v>
-      </c>
-      <c r="F210" t="s">
-        <v>416</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -9307,10 +9292,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>416</v>
+      </c>
+      <c r="F211" t="s">
         <v>417</v>
-      </c>
-      <c r="F211" t="s">
-        <v>418</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9336,10 +9321,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>418</v>
+      </c>
+      <c r="F212" t="s">
         <v>419</v>
-      </c>
-      <c r="F212" t="s">
-        <v>420</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -9365,10 +9350,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>420</v>
+      </c>
+      <c r="F213" t="s">
         <v>421</v>
-      </c>
-      <c r="F213" t="s">
-        <v>422</v>
       </c>
       <c r="G213" t="n">
         <v>4</v>
@@ -9394,10 +9379,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>422</v>
+      </c>
+      <c r="F214" t="s">
         <v>423</v>
-      </c>
-      <c r="F214" t="s">
-        <v>424</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9423,10 +9408,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>424</v>
+      </c>
+      <c r="F215" t="s">
         <v>425</v>
-      </c>
-      <c r="F215" t="s">
-        <v>426</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -9452,10 +9437,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>426</v>
+      </c>
+      <c r="F216" t="s">
         <v>427</v>
-      </c>
-      <c r="F216" t="s">
-        <v>428</v>
       </c>
       <c r="G216" t="n">
         <v>5</v>
@@ -9481,10 +9466,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>428</v>
+      </c>
+      <c r="F217" t="s">
         <v>429</v>
-      </c>
-      <c r="F217" t="s">
-        <v>430</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9510,10 +9495,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>430</v>
+      </c>
+      <c r="F218" t="s">
         <v>431</v>
-      </c>
-      <c r="F218" t="s">
-        <v>432</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9539,10 +9524,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>432</v>
+      </c>
+      <c r="F219" t="s">
         <v>433</v>
-      </c>
-      <c r="F219" t="s">
-        <v>434</v>
       </c>
       <c r="G219" t="n">
         <v>3</v>
@@ -9568,10 +9553,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>434</v>
+      </c>
+      <c r="F220" t="s">
         <v>435</v>
-      </c>
-      <c r="F220" t="s">
-        <v>436</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9597,10 +9582,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>436</v>
+      </c>
+      <c r="F221" t="s">
         <v>437</v>
-      </c>
-      <c r="F221" t="s">
-        <v>438</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9626,10 +9611,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>438</v>
+      </c>
+      <c r="F222" t="s">
         <v>439</v>
-      </c>
-      <c r="F222" t="s">
-        <v>440</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9655,10 +9640,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>440</v>
+      </c>
+      <c r="F223" t="s">
         <v>441</v>
-      </c>
-      <c r="F223" t="s">
-        <v>442</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9684,10 +9669,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>442</v>
+      </c>
+      <c r="F224" t="s">
         <v>443</v>
-      </c>
-      <c r="F224" t="s">
-        <v>444</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9713,10 +9698,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>444</v>
+      </c>
+      <c r="F225" t="s">
         <v>445</v>
-      </c>
-      <c r="F225" t="s">
-        <v>446</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9742,10 +9727,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>446</v>
+      </c>
+      <c r="F226" t="s">
         <v>447</v>
-      </c>
-      <c r="F226" t="s">
-        <v>448</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9771,10 +9756,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>448</v>
+      </c>
+      <c r="F227" t="s">
         <v>449</v>
-      </c>
-      <c r="F227" t="s">
-        <v>450</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9800,10 +9785,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>450</v>
+      </c>
+      <c r="F228" t="s">
         <v>451</v>
-      </c>
-      <c r="F228" t="s">
-        <v>452</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9829,10 +9814,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>452</v>
+      </c>
+      <c r="F229" t="s">
         <v>453</v>
-      </c>
-      <c r="F229" t="s">
-        <v>454</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9858,10 +9843,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>454</v>
+      </c>
+      <c r="F230" t="s">
         <v>455</v>
-      </c>
-      <c r="F230" t="s">
-        <v>456</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9887,10 +9872,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>456</v>
+      </c>
+      <c r="F231" t="s">
         <v>457</v>
-      </c>
-      <c r="F231" t="s">
-        <v>458</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9916,10 +9901,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>458</v>
+      </c>
+      <c r="F232" t="s">
         <v>459</v>
-      </c>
-      <c r="F232" t="s">
-        <v>460</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9945,10 +9930,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>460</v>
+      </c>
+      <c r="F233" t="s">
         <v>461</v>
-      </c>
-      <c r="F233" t="s">
-        <v>462</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9974,10 +9959,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>462</v>
+      </c>
+      <c r="F234" t="s">
         <v>463</v>
-      </c>
-      <c r="F234" t="s">
-        <v>464</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10003,10 +9988,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>464</v>
+      </c>
+      <c r="F235" t="s">
         <v>465</v>
-      </c>
-      <c r="F235" t="s">
-        <v>466</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10032,10 +10017,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>466</v>
+      </c>
+      <c r="F236" t="s">
         <v>467</v>
-      </c>
-      <c r="F236" t="s">
-        <v>468</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10061,10 +10046,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>468</v>
+      </c>
+      <c r="F237" t="s">
         <v>469</v>
-      </c>
-      <c r="F237" t="s">
-        <v>470</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10090,10 +10075,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>470</v>
+      </c>
+      <c r="F238" t="s">
         <v>471</v>
-      </c>
-      <c r="F238" t="s">
-        <v>472</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10119,10 +10104,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>472</v>
+      </c>
+      <c r="F239" t="s">
         <v>473</v>
-      </c>
-      <c r="F239" t="s">
-        <v>474</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10148,10 +10133,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>474</v>
+      </c>
+      <c r="F240" t="s">
         <v>475</v>
-      </c>
-      <c r="F240" t="s">
-        <v>476</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10177,10 +10162,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>476</v>
+      </c>
+      <c r="F241" t="s">
         <v>477</v>
-      </c>
-      <c r="F241" t="s">
-        <v>478</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10206,10 +10191,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>478</v>
+      </c>
+      <c r="F242" t="s">
         <v>479</v>
-      </c>
-      <c r="F242" t="s">
-        <v>480</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10235,10 +10220,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>480</v>
+      </c>
+      <c r="F243" t="s">
         <v>481</v>
-      </c>
-      <c r="F243" t="s">
-        <v>482</v>
       </c>
       <c r="G243" t="n">
         <v>4</v>
@@ -10264,10 +10249,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>482</v>
+      </c>
+      <c r="F244" t="s">
         <v>483</v>
-      </c>
-      <c r="F244" t="s">
-        <v>484</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10293,10 +10278,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>484</v>
+      </c>
+      <c r="F245" t="s">
         <v>485</v>
-      </c>
-      <c r="F245" t="s">
-        <v>486</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10322,10 +10307,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>486</v>
+      </c>
+      <c r="F246" t="s">
         <v>487</v>
-      </c>
-      <c r="F246" t="s">
-        <v>488</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10351,10 +10336,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>488</v>
+      </c>
+      <c r="F247" t="s">
         <v>489</v>
-      </c>
-      <c r="F247" t="s">
-        <v>490</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10380,10 +10365,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>490</v>
+      </c>
+      <c r="F248" t="s">
         <v>491</v>
-      </c>
-      <c r="F248" t="s">
-        <v>492</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10409,10 +10394,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>492</v>
+      </c>
+      <c r="F249" t="s">
         <v>493</v>
-      </c>
-      <c r="F249" t="s">
-        <v>494</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10438,10 +10423,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>494</v>
+      </c>
+      <c r="F250" t="s">
         <v>495</v>
-      </c>
-      <c r="F250" t="s">
-        <v>496</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10467,10 +10452,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>496</v>
+      </c>
+      <c r="F251" t="s">
         <v>497</v>
-      </c>
-      <c r="F251" t="s">
-        <v>498</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10496,10 +10481,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>498</v>
+      </c>
+      <c r="F252" t="s">
         <v>499</v>
-      </c>
-      <c r="F252" t="s">
-        <v>500</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10525,10 +10510,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>500</v>
+      </c>
+      <c r="F253" t="s">
         <v>501</v>
-      </c>
-      <c r="F253" t="s">
-        <v>502</v>
       </c>
       <c r="G253" t="n">
         <v>3</v>
@@ -10554,10 +10539,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>502</v>
+      </c>
+      <c r="F254" t="s">
         <v>503</v>
-      </c>
-      <c r="F254" t="s">
-        <v>504</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -10583,10 +10568,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>504</v>
+      </c>
+      <c r="F255" t="s">
         <v>505</v>
-      </c>
-      <c r="F255" t="s">
-        <v>506</v>
       </c>
       <c r="G255" t="n">
         <v>2</v>
@@ -10612,10 +10597,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>506</v>
+      </c>
+      <c r="F256" t="s">
         <v>507</v>
-      </c>
-      <c r="F256" t="s">
-        <v>508</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10641,10 +10626,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>508</v>
+      </c>
+      <c r="F257" t="s">
         <v>509</v>
-      </c>
-      <c r="F257" t="s">
-        <v>510</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10670,10 +10655,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>510</v>
+      </c>
+      <c r="F258" t="s">
         <v>511</v>
-      </c>
-      <c r="F258" t="s">
-        <v>512</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -10699,10 +10684,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>512</v>
+      </c>
+      <c r="F259" t="s">
         <v>513</v>
-      </c>
-      <c r="F259" t="s">
-        <v>514</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10728,10 +10713,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>514</v>
+      </c>
+      <c r="F260" t="s">
         <v>515</v>
-      </c>
-      <c r="F260" t="s">
-        <v>516</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10757,10 +10742,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>516</v>
+      </c>
+      <c r="F261" t="s">
         <v>517</v>
-      </c>
-      <c r="F261" t="s">
-        <v>518</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10786,10 +10771,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>518</v>
+      </c>
+      <c r="F262" t="s">
         <v>519</v>
-      </c>
-      <c r="F262" t="s">
-        <v>520</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10815,10 +10800,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>520</v>
+      </c>
+      <c r="F263" t="s">
         <v>521</v>
-      </c>
-      <c r="F263" t="s">
-        <v>522</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10844,10 +10829,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>522</v>
+      </c>
+      <c r="F264" t="s">
         <v>523</v>
-      </c>
-      <c r="F264" t="s">
-        <v>524</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10873,10 +10858,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>524</v>
+      </c>
+      <c r="F265" t="s">
         <v>525</v>
-      </c>
-      <c r="F265" t="s">
-        <v>526</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10902,10 +10887,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>526</v>
+      </c>
+      <c r="F266" t="s">
         <v>527</v>
-      </c>
-      <c r="F266" t="s">
-        <v>528</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10931,10 +10916,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>528</v>
+      </c>
+      <c r="F267" t="s">
         <v>529</v>
-      </c>
-      <c r="F267" t="s">
-        <v>530</v>
       </c>
       <c r="G267" t="n">
         <v>3</v>
@@ -10960,10 +10945,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>530</v>
+      </c>
+      <c r="F268" t="s">
         <v>531</v>
-      </c>
-      <c r="F268" t="s">
-        <v>532</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10989,10 +10974,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>532</v>
+      </c>
+      <c r="F269" t="s">
         <v>533</v>
-      </c>
-      <c r="F269" t="s">
-        <v>534</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -11018,10 +11003,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>534</v>
+      </c>
+      <c r="F270" t="s">
         <v>535</v>
-      </c>
-      <c r="F270" t="s">
-        <v>536</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11047,10 +11032,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>536</v>
+      </c>
+      <c r="F271" t="s">
         <v>537</v>
-      </c>
-      <c r="F271" t="s">
-        <v>538</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11076,10 +11061,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
+        <v>538</v>
+      </c>
+      <c r="F272" t="s">
         <v>539</v>
-      </c>
-      <c r="F272" t="s">
-        <v>540</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11105,10 +11090,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
+        <v>540</v>
+      </c>
+      <c r="F273" t="s">
         <v>541</v>
-      </c>
-      <c r="F273" t="s">
-        <v>542</v>
       </c>
       <c r="G273" t="n">
         <v>5</v>
@@ -11134,10 +11119,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>542</v>
+      </c>
+      <c r="F274" t="s">
         <v>543</v>
-      </c>
-      <c r="F274" t="s">
-        <v>544</v>
       </c>
       <c r="G274" t="n">
         <v>3</v>
@@ -11163,10 +11148,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>544</v>
+      </c>
+      <c r="F275" t="s">
         <v>545</v>
-      </c>
-      <c r="F275" t="s">
-        <v>546</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11192,10 +11177,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
+        <v>546</v>
+      </c>
+      <c r="F276" t="s">
         <v>547</v>
-      </c>
-      <c r="F276" t="s">
-        <v>548</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11221,10 +11206,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
+        <v>548</v>
+      </c>
+      <c r="F277" t="s">
         <v>549</v>
-      </c>
-      <c r="F277" t="s">
-        <v>550</v>
       </c>
       <c r="G277" t="n">
         <v>3</v>
@@ -11250,10 +11235,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
+        <v>550</v>
+      </c>
+      <c r="F278" t="s">
         <v>551</v>
-      </c>
-      <c r="F278" t="s">
-        <v>552</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11279,10 +11264,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
+        <v>552</v>
+      </c>
+      <c r="F279" t="s">
         <v>553</v>
-      </c>
-      <c r="F279" t="s">
-        <v>554</v>
       </c>
       <c r="G279" t="n">
         <v>6</v>
@@ -11308,10 +11293,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
+        <v>554</v>
+      </c>
+      <c r="F280" t="s">
         <v>555</v>
-      </c>
-      <c r="F280" t="s">
-        <v>556</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11337,10 +11322,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
+        <v>556</v>
+      </c>
+      <c r="F281" t="s">
         <v>557</v>
-      </c>
-      <c r="F281" t="s">
-        <v>558</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11366,10 +11351,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
+        <v>558</v>
+      </c>
+      <c r="F282" t="s">
         <v>559</v>
-      </c>
-      <c r="F282" t="s">
-        <v>560</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11395,10 +11380,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
+        <v>560</v>
+      </c>
+      <c r="F283" t="s">
         <v>561</v>
-      </c>
-      <c r="F283" t="s">
-        <v>562</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11424,10 +11409,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
+        <v>562</v>
+      </c>
+      <c r="F284" t="s">
         <v>563</v>
-      </c>
-      <c r="F284" t="s">
-        <v>564</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11453,10 +11438,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
+        <v>564</v>
+      </c>
+      <c r="F285" t="s">
         <v>565</v>
-      </c>
-      <c r="F285" t="s">
-        <v>566</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11482,10 +11467,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
+        <v>566</v>
+      </c>
+      <c r="F286" t="s">
         <v>567</v>
-      </c>
-      <c r="F286" t="s">
-        <v>568</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11511,10 +11496,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
+        <v>568</v>
+      </c>
+      <c r="F287" t="s">
         <v>569</v>
-      </c>
-      <c r="F287" t="s">
-        <v>570</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11540,10 +11525,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
+        <v>570</v>
+      </c>
+      <c r="F288" t="s">
         <v>571</v>
-      </c>
-      <c r="F288" t="s">
-        <v>572</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11569,10 +11554,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
+        <v>572</v>
+      </c>
+      <c r="F289" t="s">
         <v>573</v>
-      </c>
-      <c r="F289" t="s">
-        <v>574</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11598,10 +11583,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
+        <v>574</v>
+      </c>
+      <c r="F290" t="s">
         <v>575</v>
-      </c>
-      <c r="F290" t="s">
-        <v>576</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11627,10 +11612,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
+        <v>576</v>
+      </c>
+      <c r="F291" t="s">
         <v>577</v>
-      </c>
-      <c r="F291" t="s">
-        <v>578</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11656,10 +11641,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
+        <v>578</v>
+      </c>
+      <c r="F292" t="s">
         <v>579</v>
-      </c>
-      <c r="F292" t="s">
-        <v>580</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11685,10 +11670,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
+        <v>580</v>
+      </c>
+      <c r="F293" t="s">
         <v>581</v>
-      </c>
-      <c r="F293" t="s">
-        <v>582</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11714,10 +11699,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
+        <v>582</v>
+      </c>
+      <c r="F294" t="s">
         <v>583</v>
-      </c>
-      <c r="F294" t="s">
-        <v>584</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11743,10 +11728,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
+        <v>584</v>
+      </c>
+      <c r="F295" t="s">
         <v>585</v>
-      </c>
-      <c r="F295" t="s">
-        <v>586</v>
       </c>
       <c r="G295" t="n">
         <v>3</v>
@@ -11772,10 +11757,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
+        <v>586</v>
+      </c>
+      <c r="F296" t="s">
         <v>587</v>
-      </c>
-      <c r="F296" t="s">
-        <v>588</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -11801,10 +11786,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
+        <v>588</v>
+      </c>
+      <c r="F297" t="s">
         <v>589</v>
-      </c>
-      <c r="F297" t="s">
-        <v>590</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11830,10 +11815,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F298" t="s">
-        <v>592</v>
+        <v>503</v>
       </c>
       <c r="G298" t="n">
         <v>6</v>
@@ -11859,10 +11844,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F299" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11888,10 +11873,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F300" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G300" t="n">
         <v>4</v>
@@ -11917,10 +11902,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F301" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11946,10 +11931,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F302" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11975,10 +11960,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F303" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12004,10 +11989,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F304" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12033,10 +12018,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F305" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12062,10 +12047,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F306" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12091,10 +12076,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F307" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12120,10 +12105,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F308" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12149,10 +12134,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F309" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12178,10 +12163,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F310" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12207,10 +12192,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F311" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12236,10 +12221,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F312" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G312" t="n">
         <v>2</v>
@@ -12265,10 +12250,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F313" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12294,10 +12279,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F314" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G314" t="n">
         <v>2</v>
@@ -12323,10 +12308,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F315" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12352,10 +12337,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F316" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12381,10 +12366,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F317" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12439,10 +12424,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F319" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12468,10 +12453,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F320" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12497,10 +12482,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F321" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12526,10 +12511,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F322" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12555,10 +12540,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F323" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12584,10 +12569,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F324" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12613,10 +12598,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F325" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12642,10 +12627,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F326" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12671,10 +12656,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F327" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12700,10 +12685,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F328" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G328" t="n">
         <v>2</v>
@@ -12729,10 +12714,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F329" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12758,10 +12743,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F330" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12787,10 +12772,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F331" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12816,10 +12801,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F332" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G332" t="n">
         <v>2</v>
@@ -12845,10 +12830,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F333" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12903,10 +12888,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F335" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12932,10 +12917,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F336" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12961,10 +12946,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F337" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G337" t="n">
         <v>2</v>
@@ -12990,10 +12975,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F338" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13019,10 +13004,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F339" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13048,10 +13033,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F340" t="s">
-        <v>670</v>
+        <v>549</v>
       </c>
       <c r="G340" t="n">
         <v>2</v>
@@ -13077,10 +13062,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F341" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13106,10 +13091,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F342" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13135,10 +13120,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F343" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13164,10 +13149,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F344" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13193,10 +13178,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F345" t="s">
-        <v>680</v>
+        <v>505</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13222,10 +13207,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F346" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13251,10 +13236,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F347" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13280,10 +13265,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F348" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13309,10 +13294,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F349" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G349" t="n">
         <v>2</v>
@@ -13338,10 +13323,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F350" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13367,10 +13352,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F351" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13396,10 +13381,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F352" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13425,10 +13410,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F353" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13454,10 +13439,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F354" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13483,10 +13468,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F355" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13512,10 +13497,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F356" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13541,10 +13526,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F357" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13570,10 +13555,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F358" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13599,10 +13584,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F359" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13628,10 +13613,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F360" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13657,10 +13642,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F361" t="s">
-        <v>680</v>
+        <v>505</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13686,10 +13671,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F362" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13715,10 +13700,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F363" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13744,10 +13729,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F364" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13773,10 +13758,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F365" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="G365" t="n">
         <v>2</v>
@@ -13802,10 +13787,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F366" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13831,10 +13816,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F367" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13860,10 +13845,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F368" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13889,10 +13874,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F369" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13918,10 +13903,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="F370" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13947,10 +13932,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="F371" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13976,10 +13961,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F372" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14005,10 +13990,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="F373" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14034,10 +14019,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F374" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14063,10 +14048,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F375" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14092,10 +14077,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F376" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14121,10 +14106,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F377" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14150,10 +14135,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="F378" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14179,10 +14164,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="F379" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14208,10 +14193,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="F380" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14237,10 +14222,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F381" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14266,10 +14251,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F382" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14295,10 +14280,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="F383" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14324,10 +14309,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F384" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14353,10 +14338,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="F385" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14382,10 +14367,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F386" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14411,10 +14396,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F387" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14440,10 +14425,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F388" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14469,10 +14454,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F389" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14498,10 +14483,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="F390" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14527,10 +14512,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="F391" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14556,10 +14541,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F392" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14585,10 +14570,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="F393" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14614,10 +14599,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="F394" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14643,10 +14628,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="F395" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="G395" t="n">
         <v>2</v>
@@ -14672,10 +14657,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F396" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14701,10 +14686,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="F397" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="G397" t="n">
         <v>2</v>
@@ -14730,10 +14715,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F398" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14759,10 +14744,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="F399" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14788,10 +14773,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="F400" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14817,10 +14802,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="F401" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14846,10 +14831,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F402" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14875,10 +14860,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="F403" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14904,10 +14889,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F404" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14933,10 +14918,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F405" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14962,10 +14947,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F406" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14991,10 +14976,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="F407" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15020,10 +15005,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="F408" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15049,10 +15034,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F409" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15078,10 +15063,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F410" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15107,10 +15092,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F411" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15136,10 +15121,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="F412" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15165,10 +15150,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="F413" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15194,10 +15179,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="F414" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15223,10 +15208,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="F415" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="G415" t="n">
         <v>2</v>
@@ -15252,10 +15237,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F416" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="G416" t="n">
         <v>7</v>
@@ -15281,10 +15266,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F417" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15310,10 +15295,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="F418" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15339,10 +15324,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="F419" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15368,10 +15353,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="F420" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15397,10 +15382,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="F421" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15426,10 +15411,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="F422" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15455,10 +15440,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F423" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15484,10 +15469,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="F424" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15513,10 +15498,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="F425" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15542,10 +15527,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="F426" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15571,10 +15556,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="F427" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15600,10 +15585,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="F428" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15629,10 +15614,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F429" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15658,10 +15643,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="F430" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15687,10 +15672,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F431" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15716,10 +15701,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="F432" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15745,10 +15730,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="F433" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15774,10 +15759,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="F434" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15803,10 +15788,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="F435" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15832,10 +15817,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="F436" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15861,10 +15846,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="F437" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15890,10 +15875,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F438" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="G438" t="n">
         <v>2</v>
@@ -15919,10 +15904,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="F439" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15948,10 +15933,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="F440" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15977,10 +15962,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F441" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16006,10 +15991,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="F442" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16035,10 +16020,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="F443" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16064,10 +16049,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="F444" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16093,10 +16078,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="F445" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16122,10 +16107,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="F446" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16151,10 +16136,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="F447" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16180,10 +16165,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="F448" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16209,10 +16194,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="F449" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16238,10 +16223,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="F450" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16267,10 +16252,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="F451" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16296,10 +16281,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="F452" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16325,10 +16310,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="F453" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16354,10 +16339,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="F454" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16383,10 +16368,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="F455" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="G455" t="n">
         <v>2</v>
@@ -16412,10 +16397,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="F456" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16441,10 +16426,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="F457" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16470,10 +16455,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="F458" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16499,10 +16484,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="F459" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16528,10 +16513,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="F460" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16557,10 +16542,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="F461" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16586,10 +16571,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="F462" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16615,10 +16600,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="F463" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16644,10 +16629,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="F464" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16673,10 +16658,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="F465" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16702,10 +16687,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="F466" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16731,10 +16716,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="F467" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16760,10 +16745,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="F468" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -16789,10 +16774,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="F469" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -16818,10 +16803,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F470" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -16847,10 +16832,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="F471" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -16876,10 +16861,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="F472" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -16905,10 +16890,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="F473" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -16934,10 +16919,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="F474" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -16963,10 +16948,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F475" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -16992,10 +16977,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="F476" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17021,10 +17006,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="F477" t="s">
-        <v>940</v>
+        <v>794</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17050,10 +17035,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="F478" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17079,10 +17064,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F479" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>

--- a/xlsx/信息技术_intext.xlsx
+++ b/xlsx/信息技术_intext.xlsx
@@ -29,7 +29,7 @@
     <t>IT (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_管理_信息技术</t>
+    <t>体育运动_体育运动_技术_信息技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%AE%E5%AF%AB</t>
